--- a/backend/output_timetables/sem3_CSE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_CSE_post_mid_timetable.xlsx
@@ -11,6 +11,11 @@
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Verification_A" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Verification_B" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LTPSC_Compliance" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Executive_Summary" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Course_Summary" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Distribution_Logic" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="All_Courses_Overview" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,22 +486,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>MA262</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MA261</t>
         </is>
       </c>
     </row>
@@ -508,27 +513,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>CS262</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>CS262</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>CS263</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -577,7 +582,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,12 +592,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>CS264</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CS262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -614,17 +619,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>HSS_B3 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -636,27 +641,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>MA262</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -673,22 +678,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>CS263 (Lab)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CS264 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -751,27 +756,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>CS262</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>CS263</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CS264</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA261</t>
         </is>
       </c>
     </row>
@@ -783,27 +788,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>MA261</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>MA262</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CS264</t>
         </is>
       </c>
     </row>
@@ -852,7 +857,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -862,12 +867,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>CS262</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CS262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -889,17 +894,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>HSS_B3 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -911,27 +916,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CS262 (Lab)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>CS263 (Lab)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -948,22 +953,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CS264 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CS262 (Lab)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>CS263 (Lab)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -978,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,32 +1088,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**CS262**</t>
+          <t>**HSS_B3**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Software design tool and tecnique</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sunil P V, Vivekraj</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1118,7 +1123,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1140,7 +1145,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1177,27 +1182,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>**ELECTIVE_B5**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1224,22 +1229,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**MA262**</t>
+          <t>**CS263**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Design &amp; Analysis of Algorithms</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Malay, Pramod Y</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1249,7 +1254,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1271,22 +1276,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**CS263**</t>
+          <t>**CS262**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Design &amp; Analysis of Algorithms</t>
+          <t>Software design tool and tecnique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Malay, Pramod Y</t>
+          <t>Sunil P V, Vivekraj</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>2-0-2-0-3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1306,7 +1311,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1318,45 +1323,186 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>**ELECTIVE_B4**</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>**MA262**</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>**MA261**</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>**SUMMARY**</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Total Courses: 6</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Total Courses: 9</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Complete: 1</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Rate: 16.7%</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Lectures: 12</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Rate: 11.1%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Lectures: 18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Labs: 4</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>[WARN] 5 issues</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[WARN] 8 issues</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -1373,7 +1519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1431,32 +1577,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**CS262**</t>
+          <t>**CS264**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Software design tool and tecnique</t>
+          <t>Computer Networks</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sunil P V, Vivekraj</t>
+          <t>Prabhu Prasad B M</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1466,7 +1612,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1478,27 +1624,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>**HSS_B3**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1535,7 +1681,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1572,32 +1718,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**CS263**</t>
+          <t>**ELECTIVE_B5**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Design &amp; Analysis of Algorithms</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Malay, Pramod Y</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1619,34 +1765,34 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**CS264**</t>
+          <t>**CS262**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
+          <t>Software design tool and tecnique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Prabhu Prasad B M</t>
+          <t>Sunil P V, Vivekraj</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>2-0-2-0-3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>2/1</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>No</t>
@@ -1654,7 +1800,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1666,27 +1812,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**MA262**</t>
+          <t>**ELECTIVE_B4**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1713,47 +1859,3937 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>**CS263**</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Malay, Pramod Y</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>**MA262**</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>**MA261**</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>**SUMMARY**</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Total Courses: 9</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Complete: 1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Rate: 11.1%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Lectures: 18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Labs: 4</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[WARN] 8 issues</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Software design tool and tecnique</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2-0-2-0-3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[OK] FULLY COMPLIANT</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Meets requirements</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3/0/2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Total Courses: 6</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Complete: 1</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Rate: 16.7%</t>
+          <t>3/0/0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lectures: 12</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Labs: 4</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[WARN] 5 issues</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Branch: CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Generation Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-12-13 16:20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Timetable generation timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Course Statistics</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total Courses</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Core: 5, Elective: 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LTPSC Compliance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compliance Rate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>11.1%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1/9 courses fully compliant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Room Utilization</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rooms Used</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/35</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Utilization: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Schedule Density</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Time Slot Utilization</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>77.1%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A: 77.1%, B: 77.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Quality Assessment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Overall Quality</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[WARN] NEEDS REVIEW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Score: 51.6/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Practicals/Week</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Inclusion Reasoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Software design tool and tecnique</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2-0-2-0-3</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Sunil P V, Vivekraj</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Malay, Pramod Y</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Prabhu Prasad B M</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2+1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Aswath Babu H</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>User Interaction and expirence design</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = Yes (post-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>HSS/IE</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Introduction to embedded signals</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Scheduled In</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Logic Applied</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>In Pre-Mid</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>In Post-Mid</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='Yes' -&gt; Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Operating systems</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Software design tool and tecnique</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Electronics Systems design-1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Introduction of RFIC design</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Introduction to embedded signals</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='Yes' -&gt; Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Electronic Systems engineering</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>User Interaction and expirence design</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2D Computer Graphics</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='Yes' -&gt; Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='Yes' -&gt; Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>HSS/IE</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Software design tool and tecnique</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Sunil P V, Vivekraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Malay, Pramod Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Prabhu Prasad B M</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2+1</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Aswath Babu H</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>User Interaction and expirence design</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HSS/IE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Operating systems</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Suvadip Hazra</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Electronics Systems design-1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Pankaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Introduction of RFIC design</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Electronic Systems engineering</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2D Computer Graphics</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Vivekraj V K</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Software design tool and tecnique</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Sunil P V, Vivekraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Malay, Pramod Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Prabhu Prasad B M</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2+1</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Aswath Babu H</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>User Interaction and expirence design</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>HSS/IE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Introduction to embedded signals</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_CSE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_CSE_post_mid_timetable.xlsx
@@ -652,7 +652,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [C204]</t>
+          <t>CS262 (Lab) [C004]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [C203]</t>
+          <t>CS263 (Lab) [L403]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [C203]</t>
+          <t>CS263 (Lab) [L403]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -3769,16 +3769,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>42.5</v>
+        <v>50</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -4109,16 +4109,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>8.75</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -4143,16 +4143,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>12.5</v>
+        <v>2.5</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -4313,16 +4313,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>8.75</v>
+        <v>2.5</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -4667,16 +4667,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C002, C004</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -4920,7 +4920,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004, C104</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C004, C305, L407</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -4954,7 +4954,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004, C102, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -4971,7 +4971,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C001, C004</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004, C304, L406</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C004, C305, L407</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -5052,7 +5052,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C004, C102, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5112,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C004, C304, L406</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [C205]</t>
+          <t>CS262 (Lab) [C004]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [C204]</t>
+          <t>CS263 (Lab) [L404]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [C204]</t>
+          <t>CS263 (Lab) [L404]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -6932,7 +6932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7328,21 +7328,21 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -7628,7 +7628,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -7647,7 +7647,7 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7706,7 +7706,7 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -7908,27 +7908,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -7942,12 +7942,12 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -7967,12 +7967,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -7982,14 +7982,10 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="b">
         <v>0</v>
       </c>
@@ -8001,7 +7997,7 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -8026,27 +8022,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -8057,15 +8053,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -8085,27 +8085,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -8116,15 +8116,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>EC252</t>
         </is>
       </c>
     </row>
@@ -8144,27 +8148,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -8175,15 +8179,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS253</t>
         </is>
       </c>
     </row>
@@ -8203,27 +8211,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -8234,15 +8242,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>EC254</t>
         </is>
       </c>
     </row>
@@ -8262,27 +8274,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -8300,12 +8312,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS152</t>
         </is>
       </c>
     </row>
@@ -8325,27 +8337,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -8363,12 +8375,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -8388,27 +8400,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -8426,12 +8438,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS251</t>
         </is>
       </c>
     </row>
@@ -8451,12 +8463,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -8482,19 +8494,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS261</t>
         </is>
       </c>
     </row>
@@ -8514,25 +8522,29 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I27" t="b">
         <v>0</v>
       </c>
@@ -8541,19 +8553,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -8573,22 +8581,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -8604,19 +8612,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -8636,27 +8640,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I29" t="b">
@@ -8667,19 +8671,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS264</t>
         </is>
       </c>
     </row>
@@ -8699,12 +8699,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -8714,12 +8714,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -8733,12 +8733,12 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -8763,7 +8763,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -8773,12 +8773,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -8792,12 +8792,12 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -8817,22 +8817,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -8851,7 +8851,7 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -8876,27 +8876,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -8907,15 +8907,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -8935,27 +8939,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -8966,15 +8970,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>EC252</t>
         </is>
       </c>
     </row>
@@ -8994,27 +9002,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -9025,15 +9033,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>CS253</t>
         </is>
       </c>
     </row>
@@ -9053,27 +9065,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -9084,15 +9096,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>EC254</t>
         </is>
       </c>
     </row>
@@ -9112,7 +9128,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -9155,7 +9171,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS152</t>
         </is>
       </c>
     </row>
@@ -9175,7 +9191,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -9218,7 +9234,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -9238,7 +9254,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -9281,7 +9297,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS251</t>
         </is>
       </c>
     </row>
@@ -9301,27 +9317,27 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -9332,19 +9348,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -9364,27 +9376,27 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -9395,19 +9407,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -9427,27 +9435,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -9458,19 +9466,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -9490,27 +9494,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -9521,19 +9525,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -9553,7 +9553,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>MA261</t>
         </is>
       </c>
     </row>
@@ -9612,7 +9612,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -9622,17 +9622,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -9643,19 +9643,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
     </row>
@@ -9675,27 +9671,27 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -9706,19 +9702,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -9738,27 +9730,27 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -9769,19 +9761,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -9801,27 +9789,27 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -9832,19 +9820,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -9907,7 +9891,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -9970,7 +9954,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -10033,7 +10017,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC252</t>
         </is>
       </c>
     </row>
@@ -10053,12 +10037,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -10096,7 +10080,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC254</t>
         </is>
       </c>
     </row>
@@ -10116,12 +10100,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -10159,7 +10143,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS152</t>
         </is>
       </c>
     </row>
@@ -10179,12 +10163,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -10222,7 +10206,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS251</t>
         </is>
       </c>
     </row>
@@ -10242,12 +10226,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -10285,7 +10269,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS253</t>
         </is>
       </c>
     </row>
@@ -10300,17 +10284,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -10333,14 +10317,10 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>C004</t>
@@ -10348,7 +10328,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS262</t>
         </is>
       </c>
     </row>
@@ -10363,17 +10343,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -10396,14 +10376,10 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>C004</t>
@@ -10411,7 +10387,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -10426,32 +10402,32 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I58" t="b">
@@ -10459,22 +10435,18 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>MA261</t>
         </is>
       </c>
     </row>
@@ -10489,17 +10461,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -10522,7 +10494,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -10533,7 +10505,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS262</t>
         </is>
       </c>
     </row>
@@ -10553,12 +10525,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -10592,7 +10564,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS263</t>
         </is>
       </c>
     </row>
@@ -10612,12 +10584,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -10636,7 +10608,7 @@
         </is>
       </c>
       <c r="I61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -10651,7 +10623,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -10671,7 +10643,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -10681,17 +10653,17 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I62" t="b">
@@ -10705,12 +10677,12 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -10730,7 +10702,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -10769,7 +10741,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS263</t>
         </is>
       </c>
     </row>
@@ -10789,12 +10761,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -10828,7 +10800,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS264</t>
         </is>
       </c>
     </row>
@@ -10848,27 +10820,27 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I65" t="b">
@@ -10882,12 +10854,12 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -10907,12 +10879,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -10922,7 +10894,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -10941,12 +10913,12 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
     </row>
@@ -10966,27 +10938,27 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I67" t="b">
@@ -11000,12 +10972,12 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
     </row>
@@ -11025,7 +10997,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -11035,17 +11007,17 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I68" t="b">
@@ -11059,7 +11031,7 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -11084,7 +11056,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -11094,12 +11066,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -11118,7 +11090,7 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -11143,27 +11115,27 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I70" t="b">
@@ -11177,12 +11149,12 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>MA261</t>
         </is>
       </c>
     </row>
@@ -11202,12 +11174,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -11230,18 +11202,18 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -11261,46 +11233,42 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="b">
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -11320,27 +11288,27 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I73" t="b">
@@ -11348,18 +11316,22 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -11379,7 +11351,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -11389,17 +11361,17 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I74" t="b">
@@ -11407,18 +11379,22 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC252</t>
         </is>
       </c>
     </row>
@@ -11438,25 +11414,29 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I75" t="b">
         <v>0</v>
       </c>
@@ -11465,15 +11445,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS253</t>
         </is>
       </c>
     </row>
@@ -11493,25 +11477,29 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I76" t="b">
         <v>0</v>
       </c>
@@ -11520,15 +11508,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC254</t>
         </is>
       </c>
     </row>
@@ -11548,27 +11540,27 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I77" t="b">
@@ -11579,15 +11571,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS152</t>
         </is>
       </c>
     </row>
@@ -11607,27 +11603,27 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I78" t="b">
@@ -11638,15 +11634,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -11666,27 +11666,27 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I79" t="b">
@@ -11697,15 +11697,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS251</t>
         </is>
       </c>
     </row>
@@ -11725,12 +11729,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -11745,7 +11749,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I80" t="b">
@@ -11759,12 +11763,12 @@
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS261</t>
         </is>
       </c>
     </row>
@@ -11784,12 +11788,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -11799,7 +11803,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -11815,19 +11819,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -11847,12 +11847,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -11862,7 +11862,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -11878,19 +11878,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -11910,12 +11906,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -11941,11 +11937,7 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>C004</t>
@@ -11953,7 +11945,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS264</t>
         </is>
       </c>
     </row>
@@ -11973,27 +11965,27 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I84" t="b">
@@ -12004,19 +11996,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -12041,22 +12029,22 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I85" t="b">
@@ -12067,19 +12055,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -12104,22 +12088,22 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I86" t="b">
@@ -12130,19 +12114,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS263</t>
         </is>
       </c>
     </row>
@@ -12167,22 +12147,22 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I87" t="b">
@@ -12200,12 +12180,12 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -12230,22 +12210,22 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I88" t="b">
@@ -12256,15 +12236,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>EC252</t>
         </is>
       </c>
     </row>
@@ -12289,22 +12273,22 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I89" t="b">
@@ -12315,15 +12299,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>CS253</t>
         </is>
       </c>
     </row>
@@ -12343,27 +12331,27 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I90" t="b">
@@ -12374,15 +12362,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>EC254</t>
         </is>
       </c>
     </row>
@@ -12402,27 +12394,27 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I91" t="b">
@@ -12433,15 +12425,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS152</t>
         </is>
       </c>
     </row>
@@ -12461,27 +12457,27 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I92" t="b">
@@ -12492,15 +12488,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -12520,27 +12520,27 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I93" t="b">
@@ -12551,15 +12551,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>CS251</t>
         </is>
       </c>
     </row>
@@ -12579,12 +12583,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -12594,7 +12598,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -12613,12 +12617,12 @@
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -12638,27 +12642,27 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I95" t="b">
@@ -12669,19 +12673,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -12701,27 +12701,27 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I96" t="b">
@@ -12732,19 +12732,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -12764,27 +12760,27 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I97" t="b">
@@ -12795,19 +12791,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -12827,7 +12819,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -12858,11 +12850,7 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>C004</t>
@@ -12870,7 +12858,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>MA261</t>
         </is>
       </c>
     </row>
@@ -12890,27 +12878,27 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I99" t="b">
@@ -12921,19 +12909,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
     </row>
@@ -12953,27 +12937,27 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I100" t="b">
@@ -12984,19 +12968,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -13016,27 +12996,27 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I101" t="b">
@@ -13047,19 +13027,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -13079,27 +13055,27 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I102" t="b">
@@ -13113,12 +13089,12 @@
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -13560,506 +13536,6 @@
       <c r="M109" t="inlineStr">
         <is>
           <t>CS253</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>3</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>3</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>3</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>3</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I113" t="b">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>3</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>3</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I115" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>3</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>3</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>MA261</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_CSE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_CSE_post_mid_timetable.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,224 +482,288 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS262 [C004]</t>
+          <t>MINOR: Generative Ai [C203]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS262 [C004]</t>
+          <t>MINOR: Cybersecurity [C203]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS263 [C004]</t>
+          <t>MINOR: Design [C203]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS264 [C004]</t>
+          <t>MINOR: VLSI [C203]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS264 [C304]</t>
+          <t>MINOR: DSAI [C203]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>CS262 [C104]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS263 [C004]</t>
+          <t>CS262 [C104]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>CS263 [C203]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA262 [C003]</t>
+          <t>CS264 [C203]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA262 [C101]</t>
+          <t>MA262 [C002]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS263 [C104]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA262 [C002]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA261 [C002]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA261 [C003]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial) [C004]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
+          <t>CS264 [C203]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CS263 (Lab) [C004]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>HSS_B3 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>CS264 (Tutorial) [C203]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CS262 (Lab) [C004]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L403]</t>
+          <t>CS263 (Lab) [C102]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HSS_B3 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CS262 (Lab) [L403]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MA261 [C002]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MA261 [C003]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CS262 (Lab) [C203]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS263 (Lab) [L403]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CS262 (Lab) [L403]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C203]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C203]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C203]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C203]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C203]</t>
         </is>
       </c>
     </row>
@@ -2872,7 +2936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2975,27 +3039,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC253</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -3020,7 +3084,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3035,12 +3099,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DE352</t>
+          <t>HS301</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -3057,96 +3121,6 @@
         </is>
       </c>
       <c r="I4" t="inlineStr">
-        <is>
-          <t>Semester 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>A &amp; B (Common)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Semester 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>HSS_B5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>A &amp; B (Common)</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
         <is>
           <t>Semester 3</t>
         </is>
@@ -3163,7 +3137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3281,22 +3255,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC253</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -3316,12 +3290,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DE352</t>
+          <t>HS301</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3331,7 +3305,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -3343,251 +3317,6 @@
         </is>
       </c>
       <c r="G5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>HS261</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>6</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>HS361</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>6</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>HS362</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>6</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>HS363</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>6</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>HS364</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>6</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>HS365</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>6</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>HSS_B5</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3701,16 +3430,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -3735,16 +3464,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -3769,16 +3498,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>7.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -3803,16 +3532,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -3837,16 +3566,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -3905,16 +3634,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -4075,16 +3804,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -4109,16 +3838,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>20.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2</v>
+        <v>4.1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>51.24999999999999</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -4143,16 +3872,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>20.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2</v>
+        <v>4.1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.5</v>
+        <v>51.24999999999999</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -4313,16 +4042,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>20.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2</v>
+        <v>4.1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.5</v>
+        <v>51.24999999999999</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -4449,16 +4178,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -4483,16 +4212,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -4903,7 +4632,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C002, C101</t>
         </is>
       </c>
     </row>
@@ -4920,7 +4649,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101, C202</t>
         </is>
       </c>
     </row>
@@ -4937,7 +4666,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C002, C104, C202</t>
         </is>
       </c>
     </row>
@@ -4954,7 +4683,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C003, C104</t>
         </is>
       </c>
     </row>
@@ -4971,7 +4700,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003, C004</t>
         </is>
       </c>
     </row>
@@ -4988,7 +4717,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C002, C003, C004</t>
         </is>
       </c>
     </row>
@@ -5005,19 +4734,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C004, C101, C102</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC253</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -5025,63 +4754,51 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DE352</t>
+          <t>HS364</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -5089,12 +4806,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CS162</t>
+          <t>HS365</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -5102,55 +4819,59 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B5</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HS261</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C001, C002, C104, C202</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HS361</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C001, C003, C104</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HS362</t>
+          <t>EC253</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -5158,25 +4879,29 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HS363</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>C003, C004</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HS364</t>
+          <t>CS162</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -5184,12 +4909,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HS365</t>
+          <t>DE352</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -5197,15 +4922,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HSS_B5</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>C002, C004, C101, C102</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5218,7 +4947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5261,224 +4990,288 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS262 [C004]</t>
+          <t>MINOR: Generative Ai [C204]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS262 [C004]</t>
+          <t>MINOR: Cybersecurity [C204]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS263 [C004]</t>
+          <t>MINOR: Design [C204]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS264 [C004]</t>
+          <t>MINOR: VLSI [C204]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS264 [C305]</t>
+          <t>MINOR: DSAI [C204]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>CS262 [C202]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS263 [C004]</t>
+          <t>CS262 [C202]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>CS263 [C204]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA262 [C003]</t>
+          <t>CS264 [C204]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA262 [C101]</t>
+          <t>MA262 [C002]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS263 [C202]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA262 [C002]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA261 [C002]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA261 [C003]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial) [C004]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
+          <t>CS264 [C204]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CS263 (Lab) [C004]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>HSS_B3 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>CS264 (Tutorial) [C204]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CS262 (Lab) [C004]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L404]</t>
+          <t>CS263 (Lab) [C104]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HSS_B3 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CS262 (Lab) [L404]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MA261 [C002]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MA261 [C003]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CS262 (Lab) [C204]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS263 (Lab) [L404]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CS262 (Lab) [L404]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C204]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C204]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C204]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C204]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C204]</t>
         </is>
       </c>
     </row>
@@ -5493,7 +5286,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5591,7 +5384,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C203, C004</t>
+          <t>C104, L403</t>
         </is>
       </c>
     </row>
@@ -5732,14 +5525,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C304, C004</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B5**</t>
+          <t>**HSS_B5**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5786,22 +5579,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>**CS263**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Design &amp; Analysis of Algorithms</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Malay, Pramod Y</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -5811,7 +5604,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -5826,29 +5619,29 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C203, C104, C102</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**CS263**</t>
+          <t>**MA262**</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Design &amp; Analysis of Algorithms</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Malay, Pramod Y</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -5858,7 +5651,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -5873,41 +5666,41 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C203, C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B4**</t>
+          <t>**MA261**</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>No</t>
@@ -5920,99 +5713,52 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>**MA262**</t>
+          <t>**SUMMARY**</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Total Courses: 8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Complete: 1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>Rate: 12.5%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>Lectures: 16</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Labs: 4</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>--</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>[WARN] 7 issues</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
-        <is>
-          <t>C003, C101</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>**SUMMARY**</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Total Courses: 9</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Complete: 1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Rate: 11.1%</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Lectures: 18</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Labs: 4</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>[WARN] 8 issues</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -6029,7 +5775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6127,7 +5873,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C204, C004</t>
+          <t>C101, C202</t>
         </is>
       </c>
     </row>
@@ -6268,14 +6014,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C305, C004</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B5**</t>
+          <t>**HSS_B5**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -6322,22 +6068,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>**CS263**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Design &amp; Analysis of Algorithms</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Malay, Pramod Y</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -6347,7 +6093,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -6362,29 +6108,29 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C104, C204, C202</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**CS263**</t>
+          <t>**MA262**</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Design &amp; Analysis of Algorithms</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Malay, Pramod Y</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -6394,7 +6140,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -6409,41 +6155,41 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C204, C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B4**</t>
+          <t>**MA261**</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>No</t>
@@ -6456,99 +6202,52 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>**MA262**</t>
+          <t>**SUMMARY**</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Total Courses: 8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Complete: 1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>Rate: 12.5%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>Lectures: 16</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Labs: 4</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>--</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>[WARN] 7 issues</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
-        <is>
-          <t>C003, C101</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>**SUMMARY**</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Total Courses: 9</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Complete: 1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Rate: 11.1%</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Lectures: 18</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Labs: 4</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>[WARN] 8 issues</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -6565,7 +6264,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6623,7 +6322,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -6633,7 +6332,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -6642,7 +6341,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -6659,57 +6358,57 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial), CS264, CS262...</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -6728,11 +6427,11 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -6740,19 +6439,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -6767,35 +6466,35 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CS263 (Lab), CS262 (Lab)</t>
+          <t>CS262, CS263, CS263 (Lab)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -6810,11 +6509,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -6826,19 +6525,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CS263 (Lab), CS262 (Lab)</t>
+          <t>CS262, CS263</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -6857,7 +6556,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -6865,23 +6564,23 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>MINOR: Design, MINOR: DSAI, MINOR: Cybersecurity...</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>2.8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -6900,24 +6599,67 @@
         </is>
       </c>
       <c r="E8" t="n">
+        <v>14</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>8</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>MINOR: Design, MINOR: DSAI, MINOR: Cybersecurity...</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>1</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>CS264</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.2</t>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>CS262 (Lab)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -6932,7 +6674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7006,6 +6748,11 @@
           <t>course</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -7028,22 +6775,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -7057,12 +6804,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7087,22 +6839,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -7116,12 +6868,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7146,22 +6903,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I4" t="b">
@@ -7175,12 +6932,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS264 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7200,27 +6962,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -7234,12 +6996,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7264,22 +7031,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -7293,12 +7060,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7323,26 +7095,26 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -7352,12 +7124,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7382,7 +7159,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -7397,7 +7174,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I8" t="b">
@@ -7411,12 +7188,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7436,27 +7218,27 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I9" t="b">
@@ -7470,12 +7252,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7495,27 +7282,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I10" t="b">
@@ -7529,12 +7316,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -7554,27 +7346,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I11" t="b">
@@ -7588,12 +7380,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -7613,12 +7410,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -7628,7 +7425,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -7647,12 +7444,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7672,12 +7474,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -7687,7 +7489,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7706,12 +7508,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7731,7 +7538,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -7765,12 +7572,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7790,12 +7602,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -7810,7 +7622,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I15" t="b">
@@ -7824,12 +7636,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7849,27 +7666,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -7883,12 +7700,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7908,12 +7730,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -7928,7 +7750,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -7936,18 +7758,23 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7967,7 +7794,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -7985,24 +7812,33 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I18" t="b">
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
           <t>MA262</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8022,7 +7858,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -8046,18 +7882,14 @@
         </is>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>C004</t>
@@ -8065,7 +7897,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS263 (Lab)</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -8085,27 +7922,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -8113,22 +7950,23 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS263 (Lab)</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -8148,27 +7986,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -8176,22 +8014,23 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8211,27 +8050,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -8239,22 +8078,23 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8274,27 +8114,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -8302,22 +8142,23 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8337,27 +8178,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -8365,22 +8206,23 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8400,27 +8242,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -8428,22 +8270,23 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8463,12 +8306,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -8483,7 +8326,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -8491,18 +8334,23 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8527,24 +8375,20 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="b">
         <v>0</v>
       </c>
@@ -8553,15 +8397,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8581,12 +8434,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -8612,15 +8465,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8640,7 +8502,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -8650,17 +8512,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I29" t="b">
@@ -8671,15 +8533,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8699,22 +8570,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -8730,15 +8601,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8758,27 +8638,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -8789,15 +8669,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8817,22 +8706,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -8848,15 +8737,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8876,7 +8774,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -8886,17 +8784,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -8914,12 +8812,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8939,27 +8842,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -8977,12 +8880,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9002,27 +8910,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -9040,12 +8948,17 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
           <t>CS253</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9065,27 +8978,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -9103,12 +9016,17 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9128,29 +9046,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="b">
         <v>0</v>
       </c>
@@ -9166,12 +9080,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9191,12 +9110,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -9234,7 +9153,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9254,27 +9178,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -9292,12 +9216,17 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9317,12 +9246,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -9332,12 +9261,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -9348,15 +9277,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9376,12 +9314,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -9391,12 +9329,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -9410,14 +9348,15 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
-        </is>
-      </c>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -9440,24 +9379,20 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="b">
         <v>0</v>
       </c>
@@ -9466,15 +9401,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9494,12 +9438,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -9525,15 +9469,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9553,7 +9506,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -9563,17 +9516,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -9584,15 +9537,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9612,27 +9574,27 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -9643,15 +9605,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9671,27 +9642,27 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -9702,15 +9673,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9730,22 +9710,22 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -9761,15 +9741,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9789,12 +9778,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -9820,15 +9809,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9848,27 +9846,27 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -9879,21 +9877,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -9911,27 +9906,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -9942,21 +9937,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -9974,27 +9966,27 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -10005,21 +9997,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>EC252</t>
-        </is>
-      </c>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -10037,27 +10026,27 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -10068,21 +10057,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>EC254</t>
-        </is>
-      </c>
+          <t>CS262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -10100,27 +10086,27 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -10131,21 +10117,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>CS152</t>
-        </is>
-      </c>
+          <t>CS262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -10163,27 +10146,27 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I54" t="b">
@@ -10194,21 +10177,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -10226,27 +10206,27 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I55" t="b">
@@ -10257,21 +10237,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>CS253</t>
-        </is>
-      </c>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -10294,22 +10271,22 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I56" t="b">
@@ -10323,12 +10300,17 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10353,22 +10335,22 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I57" t="b">
@@ -10382,12 +10364,17 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10412,22 +10399,22 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I58" t="b">
@@ -10441,12 +10428,17 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS264 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10466,27 +10458,27 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I59" t="b">
@@ -10500,12 +10492,17 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10530,22 +10527,22 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I60" t="b">
@@ -10559,12 +10556,17 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10589,26 +10591,26 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -10618,12 +10620,17 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10648,7 +10655,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -10663,7 +10670,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I62" t="b">
@@ -10677,12 +10684,17 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10702,27 +10714,27 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I63" t="b">
@@ -10736,12 +10748,17 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10761,27 +10778,27 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I64" t="b">
@@ -10795,12 +10812,17 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -10820,27 +10842,27 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I65" t="b">
@@ -10854,12 +10876,17 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -10879,12 +10906,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -10894,7 +10921,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -10913,12 +10940,17 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10938,12 +10970,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -10953,7 +10985,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -10972,12 +11004,17 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10997,7 +11034,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -11031,12 +11068,17 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11056,12 +11098,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -11076,7 +11118,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I69" t="b">
@@ -11090,12 +11132,17 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11115,27 +11162,27 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I70" t="b">
@@ -11149,12 +11196,17 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11174,12 +11226,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -11202,18 +11254,23 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11233,7 +11290,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -11251,24 +11308,33 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I72" t="b">
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
           <t>MA262</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11288,7 +11354,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -11312,18 +11378,14 @@
         </is>
       </c>
       <c r="I73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>C004</t>
@@ -11331,7 +11393,12 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS263 (Lab)</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -11351,27 +11418,27 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I74" t="b">
@@ -11379,22 +11446,23 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS263 (Lab)</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -11414,27 +11482,27 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I75" t="b">
@@ -11442,22 +11510,23 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11477,27 +11546,27 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I76" t="b">
@@ -11505,22 +11574,23 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11540,27 +11610,27 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I77" t="b">
@@ -11568,22 +11638,23 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11603,27 +11674,27 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I78" t="b">
@@ -11631,22 +11702,23 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11666,27 +11738,27 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I79" t="b">
@@ -11694,22 +11766,23 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11729,12 +11802,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -11757,18 +11830,23 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11793,7 +11871,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -11808,7 +11886,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I81" t="b">
@@ -11819,15 +11897,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11847,12 +11934,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -11867,7 +11954,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I82" t="b">
@@ -11878,15 +11965,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11906,7 +12002,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -11916,19 +12012,15 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="b">
         <v>0</v>
       </c>
@@ -11937,15 +12029,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11965,12 +12066,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -11985,7 +12086,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I84" t="b">
@@ -11996,15 +12097,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12024,27 +12134,27 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I85" t="b">
@@ -12055,15 +12165,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12083,27 +12202,27 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I86" t="b">
@@ -12114,15 +12233,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12142,7 +12270,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -12152,17 +12280,17 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I87" t="b">
@@ -12180,12 +12308,17 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12205,27 +12338,27 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I88" t="b">
@@ -12243,12 +12376,17 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12268,27 +12406,27 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I89" t="b">
@@ -12306,12 +12444,17 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
           <t>CS253</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12331,27 +12474,27 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I90" t="b">
@@ -12369,12 +12512,17 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12394,27 +12542,27 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I91" t="b">
@@ -12432,12 +12580,17 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12457,27 +12610,27 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I92" t="b">
@@ -12495,12 +12648,17 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12520,29 +12678,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="b">
         <v>0</v>
       </c>
@@ -12558,12 +12712,17 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12583,27 +12742,27 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I94" t="b">
@@ -12614,15 +12773,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12642,12 +12810,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -12657,7 +12825,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -12676,14 +12844,15 @@
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
-        </is>
-      </c>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -12706,7 +12875,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -12721,7 +12890,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I96" t="b">
@@ -12732,15 +12901,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12760,12 +12938,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -12780,7 +12958,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I97" t="b">
@@ -12791,15 +12969,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12819,7 +13006,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -12829,19 +13016,15 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="b">
         <v>0</v>
       </c>
@@ -12850,15 +13033,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12878,12 +13070,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -12893,12 +13085,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I99" t="b">
@@ -12909,15 +13101,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12937,27 +13138,27 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I100" t="b">
@@ -12968,15 +13169,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12996,27 +13206,27 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I101" t="b">
@@ -13027,15 +13237,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -13055,27 +13274,27 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I102" t="b">
@@ -13086,15 +13305,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -13114,27 +13342,27 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I103" t="b">
@@ -13145,21 +13373,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -13177,27 +13402,27 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I104" t="b">
@@ -13208,21 +13433,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -13240,27 +13462,27 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I105" t="b">
@@ -13271,21 +13493,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>EC252</t>
-        </is>
-      </c>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -13303,27 +13522,27 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I106" t="b">
@@ -13334,21 +13553,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>EC254</t>
-        </is>
-      </c>
+          <t>CS262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -13366,27 +13582,27 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I107" t="b">
@@ -13397,21 +13613,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>CS152</t>
-        </is>
-      </c>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -13429,27 +13642,27 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I108" t="b">
@@ -13460,84 +13673,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>3</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13550,7 +13697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13846,7 +13993,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -13903,7 +14050,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -13923,12 +14070,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2/1/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2/1/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -13960,32 +14107,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3/0/0</t>
+          <t>3/1/0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2/1/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2/1/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -13995,7 +14142,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[OK]</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -14017,12 +14164,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -14066,63 +14213,6 @@
         </is>
       </c>
       <c r="K9" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Differential Equations</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3-1-0-0-2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3/1/0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>[WARN] PARTIAL</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>Check scheduling</t>
         </is>
@@ -14202,7 +14292,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-18 11:33</t>
+          <t>2026-01-19 23:36</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -14223,11 +14313,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 5, Elective: 4</t>
+          <t>Core: 5, Elective: 3</t>
         </is>
       </c>
     </row>
@@ -14244,12 +14334,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11.1%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1/9 courses fully compliant</t>
+          <t>1/8 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -14266,12 +14356,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7/36</t>
+          <t>8/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 19.4%</t>
+          <t>Utilization: 22.2%</t>
         </is>
       </c>
     </row>
@@ -14288,12 +14378,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>77.1%</t>
+          <t>73.3%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 77.1%, B: 77.1%</t>
+          <t>A: 73.3%, B: 73.3%</t>
         </is>
       </c>
     </row>
@@ -14315,7 +14405,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 51.6/100</t>
+          <t>Score: 51.0/100</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_CSE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_CSE_post_mid_timetable.xlsx
@@ -684,7 +684,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L403]</t>
+          <t>CS262 (Lab) [L402]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L403]</t>
+          <t>CS262 (Lab) [L402]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4362,16 +4362,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -4396,16 +4396,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C001, C002, C101</t>
+          <t>C001, C004, C101, C202</t>
         </is>
       </c>
     </row>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C101, C202</t>
+          <t>C001, C004, C101</t>
         </is>
       </c>
     </row>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C001, C002, C104, C202</t>
+          <t>C003, C104, C202</t>
         </is>
       </c>
     </row>
@@ -4683,7 +4683,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001, C003, C104</t>
+          <t>C003, C102, C202</t>
         </is>
       </c>
     </row>
@@ -4700,7 +4700,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C001, C002</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C001, C002, C003, C004</t>
+          <t>C001, C002, C004</t>
         </is>
       </c>
     </row>
@@ -4734,7 +4734,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C002, C004, C101, C102</t>
+          <t>C101, C102, C104</t>
         </is>
       </c>
     </row>
@@ -4842,7 +4842,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C001, C002, C104, C202</t>
+          <t>C003, C104, C202</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C001, C003, C104</t>
+          <t>C003, C102, C202</t>
         </is>
       </c>
     </row>
@@ -4889,7 +4889,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C001, C002</t>
         </is>
       </c>
     </row>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C002, C004, C101, C102</t>
+          <t>C101, C102, C104</t>
         </is>
       </c>
     </row>
@@ -6674,7 +6674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7316,7 +7316,7 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -7380,7 +7380,7 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -8375,7 +8375,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -8397,11 +8397,7 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>C001</t>
@@ -8409,14 +8405,10 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -8472,12 +8464,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -8512,12 +8504,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -8540,12 +8532,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -8580,17 +8572,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -8608,12 +8600,12 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -8648,17 +8640,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -8676,7 +8668,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -8724,11 +8716,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="b">
         <v>0</v>
       </c>
@@ -8744,7 +8732,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -8812,12 +8800,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -8842,22 +8830,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -8880,17 +8868,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8910,12 +8898,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -8941,11 +8929,7 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>C202</t>
@@ -8953,14 +8937,10 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -9061,10 +9041,14 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I37" t="b">
         <v>0</v>
       </c>
@@ -9080,7 +9064,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -9153,7 +9137,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -9193,7 +9177,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -9216,12 +9200,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -9256,19 +9240,15 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="b">
         <v>0</v>
       </c>
@@ -9284,12 +9264,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -9319,7 +9299,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -9345,18 +9325,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>CS262</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -9374,25 +9362,29 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I42" t="b">
         <v>0</v>
       </c>
@@ -9408,17 +9400,17 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9438,12 +9430,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -9469,26 +9461,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -9511,7 +9495,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -9537,11 +9521,7 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>C202</t>
@@ -9549,14 +9529,10 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -9584,12 +9560,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -9612,12 +9588,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -9652,17 +9628,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -9680,12 +9656,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -9720,17 +9696,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -9748,12 +9724,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -9788,12 +9764,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -9816,12 +9792,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -9846,12 +9822,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -9864,11 +9840,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="b">
         <v>0</v>
       </c>
@@ -9877,18 +9849,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr"/>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -9906,12 +9886,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -9937,18 +9917,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>CS261</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -9971,7 +9959,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -9986,7 +9974,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -9997,18 +9985,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>CS263</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr"/>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -11871,24 +11867,20 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="b">
         <v>0</v>
       </c>
@@ -11897,26 +11889,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -11944,12 +11928,12 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -11972,12 +11956,12 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -12012,15 +11996,19 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I83" t="b">
         <v>0</v>
       </c>
@@ -12036,12 +12024,12 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -12076,19 +12064,15 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="b">
         <v>0</v>
       </c>
@@ -12104,12 +12088,12 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -12149,7 +12133,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -12172,7 +12156,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -12280,12 +12264,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -12308,12 +12292,12 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -12338,12 +12322,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -12376,17 +12360,17 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12406,12 +12390,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -12426,7 +12410,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I89" t="b">
@@ -12437,26 +12421,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -12484,12 +12460,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -12512,7 +12488,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -12580,7 +12556,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -12620,12 +12596,12 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -12648,12 +12624,12 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -12717,7 +12693,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -12752,17 +12728,17 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I94" t="b">
@@ -12780,12 +12756,12 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -12815,22 +12791,22 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I95" t="b">
@@ -12841,18 +12817,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>CS262</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -12870,12 +12854,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -12908,17 +12892,17 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12938,12 +12922,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -12958,7 +12942,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I97" t="b">
@@ -12969,26 +12953,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -13011,20 +12987,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I98" t="b">
         <v>0</v>
       </c>
@@ -13033,26 +13013,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -13108,12 +13080,12 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -13148,12 +13120,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -13176,12 +13148,12 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -13216,17 +13188,17 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I101" t="b">
@@ -13244,12 +13216,12 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -13317,7 +13289,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -13342,27 +13314,27 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I103" t="b">
@@ -13373,18 +13345,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr"/>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -13402,29 +13382,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="b">
         <v>0</v>
       </c>
@@ -13433,18 +13409,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>CS261</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -13467,7 +13451,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -13482,7 +13466,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I105" t="b">
@@ -13493,18 +13477,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>CS263</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr"/>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -13527,7 +13519,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -13582,7 +13574,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -13597,12 +13589,12 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I107" t="b">
@@ -13616,12 +13608,12 @@
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
       <c r="N107" t="inlineStr"/>
@@ -13642,12 +13634,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -13685,6 +13677,66 @@
         </is>
       </c>
       <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>3</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I109" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/output_timetables/sem3_CSE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_CSE_post_mid_timetable.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS262 [C202]</t>
+          <t>CS262 [C302]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS264 [C104]</t>
+          <t>CS264 [C204]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -566,12 +566,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
+          <t>MA262 [C001]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MA262 [C101]</t>
+          <t>MA262 [C003]</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L207]</t>
+          <t>CS262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L106]</t>
+          <t>CS263 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -711,12 +711,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L207]</t>
+          <t>CS262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L106]</t>
+          <t>CS263 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -907,7 +907,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Not Scheduled (Error)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1733,12 +1733,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1761,7 +1761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2064,12 +2064,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2095,29 +2095,29 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Operating systems</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -2143,33 +2143,33 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Suvadip Hazra</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HS301</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HSS/IE</t>
+          <t>Electronics Systems design-1</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
@@ -2191,29 +2191,29 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Pankaj</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Operating systems</t>
+          <t>Introduction of RFIC design</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -2249,19 +2249,19 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Suvadip Hazra</t>
+          <t>Rajesh Kumar</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Electronics Systems design-1</t>
+          <t>Electronic Systems engineering</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -2297,19 +2297,19 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Pankaj</t>
+          <t>Mallikarjun Kande</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Introduction of RFIC design</t>
+          <t>Data Science with Python</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -2345,19 +2345,19 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
+          <t>Abdul Wahid</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Electronic Systems engineering</t>
+          <t>2D Computer Graphics</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -2393,23 +2393,23 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Mallikarjun Kande</t>
+          <t>Vivekraj V K</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Data Science with Python</t>
+          <t>Software design tool and tecnique</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>3</v>
@@ -2421,17 +2421,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Pre-Mid</t>
+          <t>Post-Mid</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Any</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2441,23 +2441,23 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Abdul Wahid</t>
+          <t>Sunil P V, Vivekraj</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2D Computer Graphics</t>
+          <t>Design &amp; Analysis of Algorithms</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
@@ -2469,17 +2469,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Pre-Mid</t>
+          <t>Post-Mid</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Any</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2489,23 +2489,23 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Vivekraj V K</t>
+          <t>Malay, Pramod Y</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Software design tool and tecnique</t>
+          <t>Computer Networks</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>3</v>
@@ -2537,23 +2537,23 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Sunil P V, Vivekraj</t>
+          <t>Prabhu Prasad B M</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Design &amp; Analysis of Algorithms</t>
+          <t>HSS (Ethics)</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
@@ -2585,19 +2585,19 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Malay, Pramod Y</t>
+          <t>Aswath Babu H</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
+          <t>User Interaction and expirence design</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2633,23 +2633,23 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Prabhu Prasad B M</t>
+          <t>Sandesh P</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HSS (Ethics)</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>3</v>
@@ -2666,12 +2666,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Any</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2681,23 +2681,23 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Aswath Babu H</t>
+          <t>Somen Bhattacharjee</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>User Interaction and expirence design</t>
+          <t>Introduction to embedded signals</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>3</v>
@@ -2714,12 +2714,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Any</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2728,198 +2728,6 @@
         </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>Sandesh P</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Multivariable Calculus</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Somen B</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Differential Equations</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>2</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Anand Barangi</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>HSS/IE</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>3</v>
-      </c>
-      <c r="D23" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Any</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Introduction to embedded signals</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>2</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
         <is>
           <t>Sibasankar Padhy</t>
         </is>
@@ -3735,16 +3543,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.5</v>
+        <v>16.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.25</v>
+        <v>41.25</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -3765,16 +3573,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -3799,16 +3607,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -3833,16 +3641,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>37</v>
+        <v>19.5</v>
       </c>
       <c r="E5" t="n">
-        <v>7.4</v>
+        <v>3.9</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>92.5</v>
+        <v>48.75</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -3867,16 +3675,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -3969,16 +3777,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -4037,16 +3845,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -4139,16 +3947,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -4173,16 +3981,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -4207,16 +4015,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.5</v>
+        <v>6.25</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -4241,16 +4049,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>6.25</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -4309,16 +4117,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -4377,16 +4185,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -4445,16 +4253,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -4479,16 +4287,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -4967,7 +4775,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C002, C004, C203</t>
+          <t>C004, C104</t>
         </is>
       </c>
     </row>
@@ -5001,7 +4809,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C101, C204</t>
+          <t>C002, C203</t>
         </is>
       </c>
     </row>
@@ -5018,7 +4826,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C101, C102, C205</t>
+          <t>C101, C204</t>
         </is>
       </c>
     </row>
@@ -5035,7 +4843,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C102, C104, C302</t>
+          <t>C102, C205</t>
         </is>
       </c>
     </row>
@@ -5052,7 +4860,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C104, C202, C303</t>
+          <t>C202, C302</t>
         </is>
       </c>
     </row>
@@ -5069,7 +4877,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C202, C203, C304</t>
+          <t>C303, C304</t>
         </is>
       </c>
     </row>
@@ -5099,7 +4907,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C002, C101, C204</t>
+          <t>C002, C203</t>
         </is>
       </c>
     </row>
@@ -5116,7 +4924,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C101, C102, C205</t>
+          <t>C101, C204</t>
         </is>
       </c>
     </row>
@@ -5133,7 +4941,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C102, C104, C302</t>
+          <t>C102, C205</t>
         </is>
       </c>
     </row>
@@ -5176,7 +4984,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C202, C203, C304</t>
+          <t>C303, C304</t>
         </is>
       </c>
     </row>
@@ -5330,27 +5138,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
     </row>
@@ -5367,7 +5175,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS262 [C203]</t>
+          <t>CS262 [C303]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5377,7 +5185,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS264 [C202]</t>
+          <t>CS264 [C205]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -5409,12 +5217,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>MA262 [C003]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>MA262 [C004]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>MA262 [C002]</t>
         </is>
       </c>
     </row>
@@ -5478,7 +5286,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MA261 [C001]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -5527,7 +5335,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L106]</t>
+          <t>CS262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -5554,12 +5362,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MA261 [C001]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L106]</t>
+          <t>CS262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -5586,27 +5394,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5719,7 +5527,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004, L207, C202</t>
+          <t>C004, L106, C302</t>
         </is>
       </c>
     </row>
@@ -5860,7 +5668,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C102, C104, C204</t>
+          <t>C102, C204</t>
         </is>
       </c>
     </row>
@@ -5914,22 +5722,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>**CS263**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Design &amp; Analysis of Algorithms</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Malay, Pramod Y</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -5939,7 +5747,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -5954,39 +5762,39 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C004, L207, C304</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**CS263**</t>
+          <t>**ELECTIVE_B4**</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Design &amp; Analysis of Algorithms</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Malay, Pramod Y</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -6001,41 +5809,41 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C004, L106, C304</t>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B4**</t>
+          <t>**MA262**</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Somen Bhattacharjee</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>No</t>
@@ -6043,104 +5851,57 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>C001, C003</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>**MA262**</t>
+          <t>**SUMMARY**</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Total Courses: 8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Complete: 2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>Rate: 25.0%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>Lectures: 16</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Labs: 4</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>--</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>[WARN] 6 issues</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
-        <is>
-          <t>C101, C002</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>**SUMMARY**</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Total Courses: 9</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Complete: 1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Rate: 11.1%</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Lectures: 18</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Labs: 4</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>[WARN] 8 issues</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -6157,7 +5918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6255,7 +6016,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004, L207, C203</t>
+          <t>C004, L106, C303</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6157,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C104, C205, C202</t>
+          <t>C205, C104</t>
         </is>
       </c>
     </row>
@@ -6450,22 +6211,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>**CS263**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Design &amp; Analysis of Algorithms</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Malay, Pramod Y</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -6475,7 +6236,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -6490,39 +6251,39 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C305, C004, L207</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**CS263**</t>
+          <t>**ELECTIVE_B4**</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Design &amp; Analysis of Algorithms</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Malay, Pramod Y</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -6537,41 +6298,41 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C004, L106, C305</t>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B4**</t>
+          <t>**MA262**</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Somen Bhattacharjee</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>No</t>
@@ -6579,104 +6340,57 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>C004, C001</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>**MA262**</t>
+          <t>**SUMMARY**</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Total Courses: 8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Complete: 2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>Rate: 25.0%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>Lectures: 16</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Labs: 4</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>--</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>[WARN] 6 issues</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
-        <is>
-          <t>C101, C002</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>**SUMMARY**</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Total Courses: 9</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Complete: 1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Rate: 11.1%</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Lectures: 18</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Labs: 4</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>[WARN] 8 issues</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -6693,7 +6407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6769,7 +6483,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -6777,7 +6491,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6789,7 +6503,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -6799,7 +6513,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -6808,11 +6522,11 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -6825,7 +6539,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -6851,7 +6565,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -6863,19 +6577,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>MINOR: DSAI, MINOR: VLSI, CS262...</t>
+          <t>MINOR: Cybersecurity, CS263, MINOR: Generative Ai...</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -6894,11 +6608,11 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -6906,19 +6620,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -6941,7 +6655,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -6961,7 +6675,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -6976,7 +6690,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6984,15 +6698,15 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS264, CS264 (Tutorial)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -7004,7 +6718,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7019,7 +6733,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -7027,7 +6741,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -7035,7 +6749,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>CS262, CS264</t>
+          <t>CS264, CS264 (Tutorial)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -7047,7 +6761,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7062,7 +6776,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -7070,7 +6784,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -7090,7 +6804,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7113,7 +6827,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -7121,7 +6835,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -7133,7 +6847,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7156,7 +6870,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -7164,7 +6878,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -7176,7 +6890,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7199,7 +6913,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -7219,30 +6933,30 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -7250,19 +6964,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -7297,49 +7011,6 @@
         </is>
       </c>
       <c r="I14" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>L207</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>4</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>A, B</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>CS262 (Lab)</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
         <is>
           <t>0.8</t>
         </is>
@@ -7356,7 +7027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P93"/>
+  <dimension ref="A1:P89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7683,12 +7354,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -7722,7 +7393,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -7750,17 +7421,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -7794,7 +7465,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -7827,27 +7498,27 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -7861,12 +7532,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -7899,12 +7570,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -7919,7 +7590,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -7933,12 +7604,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -7971,27 +7642,27 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -8005,17 +7676,17 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P9" t="b">
@@ -8043,7 +7714,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -8077,7 +7748,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -8115,27 +7786,27 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -8149,17 +7820,17 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P11" t="b">
@@ -8182,17 +7853,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -8226,7 +7897,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -8259,12 +7930,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -8298,7 +7969,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -8331,12 +8002,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -8370,7 +8041,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -8398,17 +8069,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -8442,7 +8113,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -8475,27 +8146,27 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -8509,12 +8180,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -8547,29 +8218,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="b">
         <v>0</v>
       </c>
@@ -8581,12 +8248,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -8619,27 +8286,27 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -8653,17 +8320,17 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P18" t="b">
@@ -8691,7 +8358,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -8725,7 +8392,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -8763,27 +8430,27 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -8797,17 +8464,17 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P20" t="b">
@@ -8830,17 +8497,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -8874,7 +8541,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -8907,27 +8574,27 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -8941,12 +8608,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -8979,22 +8646,22 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -9013,12 +8680,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -9051,27 +8718,27 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -9085,12 +8752,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -9118,7 +8785,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -9128,22 +8795,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -9151,18 +8818,22 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -9190,32 +8861,32 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -9223,18 +8894,22 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -9272,7 +8947,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -9310,7 +8985,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -9348,7 +9023,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -9381,12 +9056,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -9424,7 +9099,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -9457,12 +9132,12 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -9500,7 +9175,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -9515,7 +9190,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -9533,12 +9208,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -9576,7 +9251,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -9591,7 +9266,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -9609,12 +9284,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -9642,17 +9317,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -9667,7 +9342,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -9685,17 +9360,17 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P32" t="b">
@@ -9718,17 +9393,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -9761,17 +9436,17 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P33" t="b">
@@ -9804,22 +9479,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -9837,12 +9512,12 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -9880,7 +9555,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -9913,12 +9588,12 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -9956,7 +9631,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -9989,12 +9664,12 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -10032,7 +9707,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -10047,7 +9722,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -10065,12 +9740,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -10108,7 +9783,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -10123,7 +9798,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -10141,12 +9816,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -10174,17 +9849,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -10199,7 +9874,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -10217,17 +9892,17 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P39" t="b">
@@ -10250,17 +9925,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -10293,17 +9968,17 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P40" t="b">
@@ -10336,7 +10011,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -10374,7 +10049,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -10412,7 +10087,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -10445,12 +10120,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -10488,7 +10163,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -10521,12 +10196,12 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -10564,7 +10239,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -10579,7 +10254,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -10597,12 +10272,12 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -10640,7 +10315,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -10655,7 +10330,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -10673,12 +10348,12 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -10701,60 +10376,52 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -10777,22 +10444,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -10807,7 +10474,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -10815,22 +10482,18 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -10863,27 +10526,27 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -10897,17 +10560,17 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P48" t="b">
@@ -10935,29 +10598,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="b">
         <v>0</v>
       </c>
@@ -10969,12 +10628,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -11002,34 +10661,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="b">
         <v>0</v>
       </c>
@@ -11041,17 +10696,17 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P50" t="b">
@@ -11074,30 +10729,34 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
@@ -11109,12 +10768,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -11142,32 +10801,32 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -11181,12 +10840,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -11219,27 +10878,27 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -11253,17 +10912,17 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P53" t="b">
@@ -11291,27 +10950,27 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -11325,17 +10984,17 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P54" t="b">
@@ -11363,29 +11022,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="b">
         <v>0</v>
       </c>
@@ -11397,12 +11052,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -11430,34 +11085,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="b">
         <v>0</v>
       </c>
@@ -11469,17 +11120,17 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P56" t="b">
@@ -11502,32 +11153,32 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -11541,17 +11192,17 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P57" t="b">
@@ -11574,7 +11225,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -11584,24 +11235,20 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="b">
         <v>0</v>
       </c>
@@ -11613,12 +11260,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -11646,7 +11293,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -11656,24 +11303,20 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="b">
         <v>0</v>
       </c>
@@ -11685,12 +11328,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -11718,7 +11361,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -11728,7 +11371,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -11743,7 +11386,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -11757,12 +11400,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -11790,32 +11433,32 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -11829,12 +11472,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -11867,27 +11510,27 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -11901,17 +11544,17 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P62" t="b">
@@ -11939,27 +11582,27 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -11973,17 +11616,17 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P63" t="b">
@@ -12011,29 +11654,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="b">
         <v>0</v>
       </c>
@@ -12045,12 +11684,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -12078,34 +11717,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="b">
         <v>0</v>
       </c>
@@ -12117,17 +11752,17 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P65" t="b">
@@ -12150,32 +11785,32 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -12189,17 +11824,17 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P66" t="b">
@@ -12222,17 +11857,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -12266,7 +11901,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -12299,29 +11934,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="b">
         <v>0</v>
       </c>
@@ -12333,12 +11964,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -12366,32 +11997,32 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J69" t="b">
@@ -12399,18 +12030,22 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -12438,17 +12073,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -12461,28 +12096,28 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="b">
         <v>0</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -12510,7 +12145,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -12520,7 +12155,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -12533,24 +12168,32 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J71" t="b">
         <v>0</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -12578,32 +12221,32 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -12611,18 +12254,22 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -12660,22 +12307,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -12693,12 +12340,12 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -12736,20 +12383,24 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J74" t="b">
         <v>0</v>
       </c>
@@ -12765,12 +12416,12 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -12808,22 +12459,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J75" t="b">
@@ -12841,12 +12492,12 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -12874,32 +12525,32 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -12917,17 +12568,17 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P76" t="b">
@@ -12950,34 +12601,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="b">
         <v>0</v>
       </c>
@@ -12993,17 +12640,17 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P77" t="b">
@@ -13026,27 +12673,27 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -13069,17 +12716,17 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P78" t="b">
@@ -13102,17 +12749,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -13145,17 +12792,17 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P79" t="b">
@@ -13188,22 +12835,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J80" t="b">
@@ -13221,12 +12868,12 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -13264,20 +12911,24 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J81" t="b">
         <v>0</v>
       </c>
@@ -13293,12 +12944,12 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -13336,7 +12987,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -13351,7 +13002,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J82" t="b">
@@ -13369,12 +13020,12 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -13402,32 +13053,32 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J83" t="b">
@@ -13445,17 +13096,17 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P83" t="b">
@@ -13478,34 +13129,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="b">
         <v>0</v>
       </c>
@@ -13521,17 +13168,17 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P84" t="b">
@@ -13554,27 +13201,27 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -13597,17 +13244,17 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P85" t="b">
@@ -13630,17 +13277,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -13655,7 +13302,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J86" t="b">
@@ -13673,17 +13320,17 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P86" t="b">
@@ -13716,22 +13363,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J87" t="b">
@@ -13749,12 +13396,12 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -13792,20 +13439,24 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J88" t="b">
         <v>0</v>
       </c>
@@ -13821,12 +13472,12 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -13864,22 +13515,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J89" t="b">
@@ -13897,12 +13548,12 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -13911,310 +13562,6 @@
         </is>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>3</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J90" t="b">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>3</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J91" t="b">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>3</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J92" t="b">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>3</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J93" t="b">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P93" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14229,7 +13576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14696,7 +14043,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -14706,12 +14053,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3/1/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -14726,12 +14073,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[FAIL]</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[FAIL]</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -14741,69 +14088,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[WARN] PARTIAL</t>
+          <t>[OK] FULLY COMPLIANT</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Check scheduling</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Differential Equations</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3-1-0-0-2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3/1/0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>[WARN] PARTIAL</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
+          <t>Meets requirements</t>
         </is>
       </c>
     </row>
@@ -14881,7 +14171,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 01:05</t>
+          <t>2026-01-26 12:46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -14902,11 +14192,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 5, Elective: 4</t>
+          <t>Core: 4, Elective: 4</t>
         </is>
       </c>
     </row>
@@ -14923,12 +14213,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11.1%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1/9 courses fully compliant</t>
+          <t>2/8 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -14945,12 +14235,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14/36</t>
+          <t>13/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 38.9%</t>
+          <t>Utilization: 36.1%</t>
         </is>
       </c>
     </row>
@@ -14967,12 +14257,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>82.2%</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 82.2%, B: 82.2%</t>
+          <t>A: 77.8%, B: 77.8%</t>
         </is>
       </c>
     </row>
@@ -14994,7 +14284,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 53.1/100</t>
+          <t>Score: 57.3/100</t>
         </is>
       </c>
     </row>
@@ -15009,7 +14299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15502,17 +14792,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Somen Bhattacharjee</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -15527,7 +14817,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Half Semester = No, Post mid-sem = Yes (post-mid only)</t>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>
       </c>
     </row>
@@ -15547,12 +14837,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Introduction to embedded signals</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -15574,174 +14864,30 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Sibasankar Padhy</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
-        <is>
-          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>HSS/IE</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Introduction to embedded signals</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Sibasankar Padhy</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
         <is>
           <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>

--- a/backend/output_timetables/sem3_CSE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_CSE_post_mid_timetable.xlsx
@@ -487,27 +487,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
     </row>
@@ -519,17 +519,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS262 [C004]</t>
+          <t>CS262 [C204]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS262 [C302]</t>
+          <t>CS262 [C304]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS263 [C004]</t>
+          <t>CS263 [C204]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -539,7 +539,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS264 [C102]</t>
+          <t>CS264 [C101]</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MA262 [C003]</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L106]</t>
+          <t>CS262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L207]</t>
+          <t>CS263 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L106]</t>
+          <t>CS262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L207]</t>
+          <t>CS263 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -743,27 +743,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
     </row>
@@ -3543,16 +3543,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>16.5</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>41.25</v>
+        <v>7.5</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -3607,16 +3607,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -3641,16 +3641,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>19.5</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>48.75</v>
+        <v>7.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -3709,16 +3709,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.5</v>
+        <v>16.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3</v>
+        <v>3.3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.75</v>
+        <v>41.25</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -3777,16 +3777,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.75</v>
+        <v>37.5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -3879,16 +3879,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -4015,16 +4015,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>6.25</v>
+        <v>13.75</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -4049,16 +4049,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.25</v>
+        <v>13.75</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -4117,16 +4117,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -4253,16 +4253,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -4287,16 +4287,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -4321,16 +4321,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -4355,16 +4355,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C104</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -4792,7 +4792,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001, C305</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C203</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -4826,7 +4826,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C101, C204</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -4843,7 +4843,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C102, C205</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -4860,7 +4860,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C202, C302</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C303, C304</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C002, C203</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C101, C204</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C102, C205</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -4984,7 +4984,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C303, C304</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -5138,27 +5138,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
     </row>
@@ -5170,17 +5170,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS262 [C101]</t>
+          <t>CS262 [C205]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS262 [C303]</t>
+          <t>CS262 [C305]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS263 [C302]</t>
+          <t>CS263 [C205]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -5190,7 +5190,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS264 [C104]</t>
+          <t>CS264 [C102]</t>
         </is>
       </c>
     </row>
@@ -5217,12 +5217,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MA262 [C003]</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA262 [C001]</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L207]</t>
+          <t>CS262 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L107]</t>
+          <t>CS263 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L207]</t>
+          <t>CS262 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -5377,7 +5377,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L107]</t>
+          <t>CS263 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -5394,27 +5394,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
     </row>
@@ -5527,7 +5527,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004, L106, C302</t>
+          <t>C204, L207, C304</t>
         </is>
       </c>
     </row>
@@ -5668,7 +5668,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C102, C204</t>
+          <t>C101, C204</t>
         </is>
       </c>
     </row>
@@ -5762,7 +5762,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C004, L207, C304</t>
+          <t>C204, L107, C304</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5856,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>C001, C003</t>
+          <t>C004, C001</t>
         </is>
       </c>
     </row>
@@ -6016,7 +6016,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004, L106, C303</t>
+          <t>C205, C305, L207</t>
         </is>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C205, C104</t>
+          <t>C205, C102</t>
         </is>
       </c>
     </row>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C305, C004, L207</t>
+          <t>C205, C305, L106</t>
         </is>
       </c>
     </row>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>C004, C001</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -6407,7 +6407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6479,7 +6479,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -6496,29 +6496,29 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -6546,43 +6546,43 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity, CS263, MINOR: Generative Ai...</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -6608,24 +6608,24 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS264, MINOR: Generative Ai, MINOR: Design...</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>2.2</t>
         </is>
       </c>
     </row>
@@ -6651,24 +6651,24 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>MINOR: Generative Ai, MINOR: Design, MINOR: VLSI...</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -6694,7 +6694,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -6702,16 +6702,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CS264, CS264 (Tutorial)</t>
+          <t>CS264 (Tutorial), CS263, CS264...</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -6745,23 +6745,23 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>CS264, CS264 (Tutorial)</t>
+          <t>CS264 (Tutorial), CS263, CS264...</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -6776,11 +6776,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -6788,23 +6788,23 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS263, CS262</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -6823,7 +6823,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -6831,46 +6831,46 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS263, CS262</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -6878,42 +6878,42 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -6921,19 +6921,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -6968,49 +6968,6 @@
         </is>
       </c>
       <c r="I13" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>L207</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>4</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>A, B</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>CS263 (Lab)</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
         <is>
           <t>0.8</t>
         </is>
@@ -7148,17 +7105,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -7172,7 +7129,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -7220,17 +7177,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -7244,7 +7201,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -7364,17 +7321,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -7388,7 +7345,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -7436,17 +7393,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -7460,7 +7417,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -7518,7 +7475,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -7532,7 +7489,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -7676,7 +7633,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -7748,7 +7705,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -7796,17 +7753,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -7820,7 +7777,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -7868,17 +7825,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -7892,7 +7849,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -7940,17 +7897,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -7964,7 +7921,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -8012,17 +7969,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -8036,7 +7993,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -8084,17 +8041,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -8108,7 +8065,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -8320,7 +8277,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -8392,7 +8349,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -8440,17 +8397,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -8464,7 +8421,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -8512,17 +8469,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -8536,7 +8493,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -8608,7 +8565,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -8656,17 +8613,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -8680,7 +8637,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -8728,17 +8685,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -8752,7 +8709,7 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -8810,7 +8767,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -8828,7 +8785,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -8886,7 +8843,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -8904,7 +8861,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -8962,7 +8919,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -8980,7 +8937,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -9038,7 +8995,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -9056,7 +9013,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -9114,7 +9071,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -9132,7 +9089,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -9190,7 +9147,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -9208,7 +9165,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -9284,7 +9241,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -9342,7 +9299,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -9360,7 +9317,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -9418,7 +9375,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -9436,7 +9393,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -9494,7 +9451,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -9512,7 +9469,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -9570,7 +9527,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -9588,7 +9545,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -9646,7 +9603,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -9664,7 +9621,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -9722,7 +9679,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -9740,7 +9697,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -9816,7 +9773,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -9874,7 +9831,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -9892,7 +9849,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -9950,7 +9907,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -9968,7 +9925,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -10026,7 +9983,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -10044,7 +10001,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -10102,7 +10059,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -10120,7 +10077,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -10178,7 +10135,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -10196,7 +10153,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -10254,7 +10211,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -10272,7 +10229,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -10348,7 +10305,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -10396,15 +10353,19 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
@@ -10416,7 +10377,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -10474,7 +10435,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -10488,7 +10449,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -10608,15 +10569,19 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J49" t="b">
         <v>0</v>
       </c>
@@ -10628,7 +10593,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -10676,15 +10641,19 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J50" t="b">
         <v>0</v>
       </c>
@@ -10696,7 +10665,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -10768,7 +10737,7 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -10912,7 +10881,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -10984,7 +10953,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -11032,15 +11001,19 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J55" t="b">
         <v>0</v>
       </c>
@@ -11052,7 +11025,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -11100,15 +11073,19 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
@@ -11120,7 +11097,7 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -11178,7 +11155,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -11192,7 +11169,7 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -11240,15 +11217,19 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J58" t="b">
         <v>0</v>
       </c>
@@ -11260,7 +11241,7 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -11308,15 +11289,19 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
@@ -11328,7 +11313,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -11448,17 +11433,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -11472,7 +11457,7 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -11544,7 +11529,7 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -11616,7 +11601,7 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -11664,15 +11649,19 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
@@ -11684,7 +11673,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -11732,15 +11721,19 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J65" t="b">
         <v>0</v>
       </c>
@@ -11752,7 +11745,7 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -11824,7 +11817,7 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -11872,19 +11865,15 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="b">
         <v>0</v>
       </c>
@@ -11896,7 +11885,7 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -11944,15 +11933,19 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J68" t="b">
         <v>0</v>
       </c>
@@ -11964,7 +11957,7 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -12012,17 +12005,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J69" t="b">
@@ -12040,7 +12033,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -12088,15 +12081,19 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J70" t="b">
         <v>0</v>
       </c>
@@ -12112,7 +12109,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -12160,12 +12157,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -12188,7 +12185,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -12264,7 +12261,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -12340,7 +12337,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -12398,7 +12395,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J74" t="b">
@@ -12416,7 +12413,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -12492,7 +12489,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -12540,17 +12537,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -12568,7 +12565,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -12616,15 +12613,19 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J77" t="b">
         <v>0</v>
       </c>
@@ -12640,7 +12641,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -12688,12 +12689,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -12716,7 +12717,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -12792,7 +12793,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -12868,7 +12869,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -12926,7 +12927,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -12944,7 +12945,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -13020,7 +13021,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -13068,17 +13069,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J83" t="b">
@@ -13096,7 +13097,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -13144,15 +13145,19 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J84" t="b">
         <v>0</v>
       </c>
@@ -13168,7 +13173,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -13216,12 +13221,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -13244,7 +13249,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -13320,7 +13325,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -13396,7 +13401,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -13454,7 +13459,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J88" t="b">
@@ -13472,7 +13477,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -13548,7 +13553,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -14171,7 +14176,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 12:46</t>
+          <t>2026-01-26 21:32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -14235,12 +14240,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13/36</t>
+          <t>12/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 36.1%</t>
+          <t>Utilization: 33.3%</t>
         </is>
       </c>
     </row>
